--- a/2020/math/10/solutions/tables/prob-10-4.xlsx
+++ b/2020/math/10/solutions/tables/prob-10-4.xlsx
@@ -1,117 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CD41F042-A189-E64A-A7C8-86C677A54AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Number of Bowlers</t>
+    <t>Marks</t>
   </si>
   <si>
-    <t>Famil Size</t>
+    <t>Number of Students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color rgb="FF505050"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF505050"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF505050"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF505050"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -309,21 +294,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -340,7 +325,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -394,157 +379,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.17578125" customWidth="1"/>
-    <col min="2" max="11" width="8.7421875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.14"/>
+    <col customWidth="1" min="2" max="11" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" ref="D2:H2" si="1">C2+10</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>